--- a/Template_test_cases_kolmykov.Klochko.Kulibaba.xlsx
+++ b/Template_test_cases_kolmykov.Klochko.Kulibaba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkolm\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekaterina.andronova\Downloads\skillup1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="184">
   <si>
     <r>
       <t>How the tree directory is structured in Quality Center</t>
@@ -658,12 +658,18 @@
   <si>
     <t>The file will be create</t>
   </si>
+  <si>
+    <t>Expected должен быть на каждый шаг! Доделайте, пожалуйста!</t>
+  </si>
+  <si>
+    <t>Шаги поразделять, чтобы не было 2 действия в 1 шаге</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +745,18 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -817,7 +835,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -915,21 +933,28 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Hyperlink 3" xfId="1"/>
     <cellStyle name="Hyperlink 4" xfId="2"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 18" xfId="3"/>
     <cellStyle name="Normal 4 3" xfId="4"/>
     <cellStyle name="Normal 8 3" xfId="5"/>
@@ -937,111 +962,8 @@
     <cellStyle name="Normal 8 5" xfId="7"/>
     <cellStyle name="Normal 8 6" xfId="8"/>
     <cellStyle name="Normal_webofscience checklist" xfId="9"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="186">
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="13"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="10"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="51"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="174">
     <dxf>
       <font>
         <color indexed="13"/>
@@ -2783,9 +2705,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2823,7 +2745,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2895,7 +2817,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3211,8 +3133,8 @@
   <dimension ref="A1:S118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3226,7 +3148,8 @@
     <col min="7" max="7" width="62" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" style="5" customWidth="1"/>
     <col min="9" max="9" width="71.140625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="10" max="10" width="44.140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" ht="63.75">
@@ -3288,20 +3211,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="18.75">
-      <c r="A2" s="31">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="37.5">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="33" t="s">
         <v>169</v>
       </c>
       <c r="F2" s="15">
@@ -3310,13 +3233,15 @@
       <c r="G2" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="J2" s="8"/>
+      <c r="J2" s="35" t="s">
+        <v>182</v>
+      </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -3328,19 +3253,19 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" s="7" customFormat="1" ht="18.75">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="15">
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
@@ -3427,19 +3352,19 @@
       <c r="S5" s="8"/>
     </row>
     <row r="6" spans="1:19" s="7" customFormat="1" ht="18.75">
-      <c r="A6" s="31">
+      <c r="A6" s="33">
         <v>4</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="15">
@@ -3448,8 +3373,8 @@
       <c r="G6" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="33" t="s">
+      <c r="H6" s="33"/>
+      <c r="I6" s="31" t="s">
         <v>155</v>
       </c>
       <c r="J6" s="8"/>
@@ -3464,19 +3389,19 @@
       <c r="S6" s="8"/>
     </row>
     <row r="7" spans="1:19" s="7" customFormat="1" ht="18.75">
-      <c r="A7" s="32"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="15">
         <v>2</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="32"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -3674,19 +3599,19 @@
       <c r="S12" s="8"/>
     </row>
     <row r="13" spans="1:19" s="7" customFormat="1" ht="18.75">
-      <c r="A13" s="31">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="31" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="15">
@@ -3695,10 +3620,10 @@
       <c r="G13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="33" t="s">
+      <c r="I13" s="31" t="s">
         <v>160</v>
       </c>
       <c r="J13" s="8"/>
@@ -3713,19 +3638,19 @@
       <c r="S13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="18.75">
-      <c r="A14" s="32"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="34"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="32"/>
       <c r="F14" s="15">
         <v>2</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
@@ -3738,19 +3663,19 @@
       <c r="S14" s="8"/>
     </row>
     <row r="15" spans="1:19" ht="18.75">
-      <c r="A15" s="31">
+      <c r="A15" s="33">
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="31" t="s">
         <v>173</v>
       </c>
       <c r="F15" s="15">
@@ -3759,10 +3684,10 @@
       <c r="G15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I15" s="33" t="s">
+      <c r="I15" s="31" t="s">
         <v>160</v>
       </c>
       <c r="J15" s="8"/>
@@ -3777,19 +3702,19 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" ht="19.5" customHeight="1">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="34"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="32"/>
       <c r="F16" s="15">
         <v>2</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -3802,19 +3727,19 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" ht="37.5" customHeight="1">
-      <c r="A17" s="31">
+      <c r="A17" s="33">
         <v>13</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="31" t="s">
         <v>174</v>
       </c>
       <c r="F17" s="15">
@@ -3823,10 +3748,10 @@
       <c r="G17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="33" t="s">
+      <c r="I17" s="31" t="s">
         <v>179</v>
       </c>
       <c r="J17" s="8"/>
@@ -3841,19 +3766,19 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" ht="18.75">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="32"/>
       <c r="F18" s="15">
         <v>2</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
@@ -3866,19 +3791,19 @@
       <c r="S18" s="8"/>
     </row>
     <row r="19" spans="1:19" ht="18.75">
-      <c r="A19" s="31">
+      <c r="A19" s="33">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="31" t="s">
         <v>175</v>
       </c>
       <c r="F19" s="15">
@@ -3887,8 +3812,8 @@
       <c r="G19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="33" t="s">
+      <c r="H19" s="33"/>
+      <c r="I19" s="31" t="s">
         <v>162</v>
       </c>
       <c r="J19" s="8"/>
@@ -3903,19 +3828,19 @@
       <c r="S19" s="8"/>
     </row>
     <row r="20" spans="1:19" ht="18.75">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
       <c r="C20" s="28"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="15">
         <v>2</v>
       </c>
       <c r="G20" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="32"/>
-      <c r="I20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="8"/>
@@ -4042,7 +3967,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="16"/>
     </row>
-    <row r="25" spans="1:19" ht="36">
+    <row r="25" spans="1:19" ht="37.5">
       <c r="A25" s="10">
         <v>19</v>
       </c>
@@ -4065,6 +3990,9 @@
       <c r="H25" s="20"/>
       <c r="I25" s="20" t="s">
         <v>83</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="18">
@@ -4162,7 +4090,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:19" ht="72">
+    <row r="31" spans="1:19" ht="54">
       <c r="A31" s="10">
         <v>25</v>
       </c>
@@ -4206,7 +4134,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" ht="36">
+    <row r="33" spans="1:10" ht="36">
       <c r="A33" s="10">
         <v>27</v>
       </c>
@@ -4223,7 +4151,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" ht="36">
+    <row r="34" spans="1:10" ht="36">
       <c r="A34" s="10">
         <v>28</v>
       </c>
@@ -4248,7 +4176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18">
+    <row r="35" spans="1:10" ht="18">
       <c r="A35" s="10">
         <v>29</v>
       </c>
@@ -4265,7 +4193,7 @@
       <c r="H35" s="26"/>
       <c r="I35" s="26"/>
     </row>
-    <row r="36" spans="1:9" ht="18">
+    <row r="36" spans="1:10" ht="18">
       <c r="A36" s="10">
         <v>30</v>
       </c>
@@ -4282,7 +4210,7 @@
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
     </row>
-    <row r="37" spans="1:9" ht="54">
+    <row r="37" spans="1:10" ht="54">
       <c r="A37" s="10">
         <v>31</v>
       </c>
@@ -4309,7 +4237,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18">
+    <row r="38" spans="1:10" ht="18">
       <c r="A38" s="10">
         <v>32</v>
       </c>
@@ -4326,7 +4254,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:9" ht="18">
+    <row r="39" spans="1:10" ht="18">
       <c r="A39" s="10">
         <v>33</v>
       </c>
@@ -4343,7 +4271,7 @@
       <c r="H39" s="11"/>
       <c r="I39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="18">
+    <row r="40" spans="1:10" ht="18">
       <c r="A40" s="10">
         <v>34</v>
       </c>
@@ -4360,7 +4288,7 @@
       <c r="H40" s="11"/>
       <c r="I40" s="10"/>
     </row>
-    <row r="41" spans="1:9" ht="18">
+    <row r="41" spans="1:10" ht="18">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -4371,7 +4299,7 @@
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
-    <row r="42" spans="1:9" ht="18">
+    <row r="42" spans="1:10" ht="18">
       <c r="A42" s="10">
         <v>35</v>
       </c>
@@ -4396,7 +4324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18">
+    <row r="43" spans="1:10" ht="18">
       <c r="A43" s="10">
         <v>36</v>
       </c>
@@ -4421,7 +4349,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="36">
+    <row r="44" spans="1:10" ht="36">
       <c r="A44" s="10">
         <v>37</v>
       </c>
@@ -4445,8 +4373,11 @@
       <c r="I44" s="10" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="36">
+      <c r="J44" s="36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="36">
       <c r="A45" s="10">
         <v>38</v>
       </c>
@@ -4471,7 +4402,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="36">
+    <row r="46" spans="1:10" ht="36">
       <c r="A46" s="10">
         <v>39</v>
       </c>
@@ -4496,7 +4427,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="36">
+    <row r="47" spans="1:10" ht="18">
       <c r="A47" s="10">
         <v>40</v>
       </c>
@@ -4521,7 +4452,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="54">
+    <row r="48" spans="1:10" ht="54">
       <c r="A48" s="10">
         <v>41</v>
       </c>
@@ -4571,7 +4502,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="72">
+    <row r="50" spans="1:9" ht="54">
       <c r="A50" s="10">
         <v>43</v>
       </c>
@@ -5388,6 +5319,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="H6:H7"/>
@@ -5400,44 +5360,15 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <conditionalFormatting sqref="I5 G5 P2 P4 P6:P8">
     <cfRule type="cellIs" priority="400" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="401" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="402" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="401" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="402" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5445,10 +5376,10 @@
     <cfRule type="cellIs" priority="397" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="398" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="182" priority="399" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="398" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="170" priority="399" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5456,10 +5387,10 @@
     <cfRule type="cellIs" priority="379" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="380" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="180" priority="381" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="380" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="381" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5467,10 +5398,10 @@
     <cfRule type="cellIs" priority="376" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="179" priority="377" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="378" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="377" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="166" priority="378" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5478,10 +5409,10 @@
     <cfRule type="cellIs" priority="367" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="368" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="369" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="368" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="369" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5489,10 +5420,10 @@
     <cfRule type="cellIs" priority="364" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="175" priority="365" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="174" priority="366" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="365" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="162" priority="366" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5500,10 +5431,10 @@
     <cfRule type="cellIs" priority="289" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="290" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="291" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="290" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="291" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5511,10 +5442,10 @@
     <cfRule type="cellIs" priority="286" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="287" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="170" priority="288" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="287" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="288" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5522,10 +5453,10 @@
     <cfRule type="cellIs" priority="349" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="350" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="350" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="156" priority="351" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5533,10 +5464,10 @@
     <cfRule type="cellIs" priority="346" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="347" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="166" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="347" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="348" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5544,10 +5475,10 @@
     <cfRule type="cellIs" priority="343" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="165" priority="344" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="345" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="344" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="152" priority="345" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5555,10 +5486,10 @@
     <cfRule type="cellIs" priority="340" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="341" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="342" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="341" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="150" priority="342" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5566,10 +5497,10 @@
     <cfRule type="cellIs" priority="265" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="161" priority="266" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="267" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="266" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="148" priority="267" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5577,10 +5508,10 @@
     <cfRule type="cellIs" priority="262" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="263" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="264" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="263" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="264" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5588,10 +5519,10 @@
     <cfRule type="cellIs" priority="319" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="157" priority="320" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="156" priority="321" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="320" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="321" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5599,10 +5530,10 @@
     <cfRule type="cellIs" priority="316" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="317" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="318" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="317" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="318" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5610,10 +5541,10 @@
     <cfRule type="cellIs" priority="313" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="314" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="152" priority="315" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="314" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="140" priority="315" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5621,10 +5552,10 @@
     <cfRule type="cellIs" priority="310" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="311" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="312" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="311" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="312" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5632,10 +5563,10 @@
     <cfRule type="cellIs" priority="301" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="302" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="303" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="302" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="303" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5643,10 +5574,10 @@
     <cfRule type="cellIs" priority="298" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="299" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="300" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="299" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="134" priority="300" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5654,10 +5585,10 @@
     <cfRule type="cellIs" priority="295" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="296" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="297" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="296" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="132" priority="297" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5665,10 +5596,10 @@
     <cfRule type="cellIs" priority="292" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="143" priority="293" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="294" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="293" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="130" priority="294" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5676,10 +5607,10 @@
     <cfRule type="cellIs" priority="235" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="236" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="237" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="236" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="128" priority="237" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5687,10 +5618,10 @@
     <cfRule type="cellIs" priority="232" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="233" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="234" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="233" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="126" priority="234" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5698,10 +5629,10 @@
     <cfRule type="cellIs" priority="277" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="137" priority="278" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="279" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="278" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="279" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5709,10 +5640,10 @@
     <cfRule type="cellIs" priority="274" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="275" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="276" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="275" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="276" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5720,10 +5651,10 @@
     <cfRule type="cellIs" priority="271" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="272" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="273" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="272" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="120" priority="273" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5731,10 +5662,10 @@
     <cfRule type="cellIs" priority="268" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="269" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="130" priority="270" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="269" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="270" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5742,10 +5673,10 @@
     <cfRule type="cellIs" priority="253" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="254" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="255" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="254" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="116" priority="255" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5753,10 +5684,10 @@
     <cfRule type="cellIs" priority="250" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="251" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="252" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="251" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="252" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5764,10 +5695,10 @@
     <cfRule type="cellIs" priority="247" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="248" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="248" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="249" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5775,10 +5706,10 @@
     <cfRule type="cellIs" priority="244" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="245" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="245" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="110" priority="246" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5786,10 +5717,10 @@
     <cfRule type="cellIs" priority="241" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="242" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="243" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="242" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="108" priority="243" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5797,10 +5728,10 @@
     <cfRule type="cellIs" priority="238" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="239" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="240" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="239" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="240" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5808,10 +5739,10 @@
     <cfRule type="cellIs" priority="181" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="182" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="183" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="182" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="183" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5819,10 +5750,10 @@
     <cfRule type="cellIs" priority="178" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="179" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="179" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="102" priority="180" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5830,10 +5761,10 @@
     <cfRule type="cellIs" priority="193" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="194" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="195" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="194" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="195" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5841,10 +5772,10 @@
     <cfRule type="cellIs" priority="190" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="191" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="192" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="191" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="192" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5852,10 +5783,10 @@
     <cfRule type="cellIs" priority="187" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="188" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="189" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="188" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="189" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5863,10 +5794,10 @@
     <cfRule type="cellIs" priority="184" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="185" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="186" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="185" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="186" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5874,10 +5805,10 @@
     <cfRule type="cellIs" priority="163" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="164" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="164" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="165" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5885,10 +5816,10 @@
     <cfRule type="cellIs" priority="160" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="161" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="162" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="161" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="162" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5896,10 +5827,10 @@
     <cfRule type="cellIs" priority="175" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="176" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="176" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="177" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5907,10 +5838,10 @@
     <cfRule type="cellIs" priority="172" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="173" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="173" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="174" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5918,10 +5849,10 @@
     <cfRule type="cellIs" priority="169" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="170" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="171" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="170" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="171" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5929,10 +5860,10 @@
     <cfRule type="cellIs" priority="166" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="167" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="168" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="167" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="168" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5940,10 +5871,10 @@
     <cfRule type="cellIs" priority="145" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="146" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="147" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="146" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="147" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5951,10 +5882,10 @@
     <cfRule type="cellIs" priority="142" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="143" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="144" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="143" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="144" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5962,10 +5893,10 @@
     <cfRule type="cellIs" priority="157" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="158" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="158" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="159" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5973,10 +5904,10 @@
     <cfRule type="cellIs" priority="154" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="155" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="155" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="156" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5984,10 +5915,10 @@
     <cfRule type="cellIs" priority="151" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="152" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="153" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="152" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="153" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5995,10 +5926,10 @@
     <cfRule type="cellIs" priority="148" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="149" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="149" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="150" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6006,10 +5937,10 @@
     <cfRule type="cellIs" priority="73" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="74" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="74" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="75" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6017,10 +5948,10 @@
     <cfRule type="cellIs" priority="70" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="71" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="71" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="72" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6028,10 +5959,10 @@
     <cfRule type="cellIs" priority="85" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="86" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="86" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="87" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6039,10 +5970,10 @@
     <cfRule type="cellIs" priority="82" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="83" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="83" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="84" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,10 +5981,10 @@
     <cfRule type="cellIs" priority="79" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="80" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="80" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="81" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6061,10 +5992,10 @@
     <cfRule type="cellIs" priority="76" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="77" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="77" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="78" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6072,10 +6003,10 @@
     <cfRule type="cellIs" priority="121" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="122" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="122" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="123" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6083,10 +6014,10 @@
     <cfRule type="cellIs" priority="118" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="119" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="120" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="119" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="120" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6094,10 +6025,10 @@
     <cfRule type="cellIs" priority="115" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="116" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="116" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="117" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6105,10 +6036,10 @@
     <cfRule type="cellIs" priority="112" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="113" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="113" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="114" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6116,10 +6047,10 @@
     <cfRule type="cellIs" priority="91" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="92" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="92" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="93" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6127,10 +6058,10 @@
     <cfRule type="cellIs" priority="88" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="89" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="89" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="90" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6138,10 +6069,10 @@
     <cfRule type="cellIs" priority="103" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="104" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="105" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="104" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="105" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6149,10 +6080,10 @@
     <cfRule type="cellIs" priority="100" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="101" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="101" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="102" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6160,10 +6091,10 @@
     <cfRule type="cellIs" priority="97" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="98" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="98" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="99" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6171,10 +6102,10 @@
     <cfRule type="cellIs" priority="94" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="95" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="95" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="96" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6182,10 +6113,10 @@
     <cfRule type="cellIs" priority="67" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="68" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="68" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="69" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6193,10 +6124,10 @@
     <cfRule type="cellIs" priority="64" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="65" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="65" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="66" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6204,10 +6135,10 @@
     <cfRule type="cellIs" priority="61" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="62" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="62" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="63" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6215,10 +6146,10 @@
     <cfRule type="cellIs" priority="58" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="59" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="59" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="60" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6226,10 +6157,10 @@
     <cfRule type="cellIs" priority="55" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="56" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="56" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="57" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6237,10 +6168,10 @@
     <cfRule type="cellIs" priority="52" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="53" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="53" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="54" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6248,10 +6179,10 @@
     <cfRule type="cellIs" priority="49" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="50" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="50" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="51" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6259,10 +6190,10 @@
     <cfRule type="cellIs" priority="46" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="47" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="47" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="48" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6270,10 +6201,10 @@
     <cfRule type="cellIs" priority="43" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="44" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="44" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="45" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6281,10 +6212,10 @@
     <cfRule type="cellIs" priority="40" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="41" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="41" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="42" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6292,10 +6223,10 @@
     <cfRule type="cellIs" priority="37" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="38" stopIfTrue="1" operator="equal">
-      <formula>#REF!</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="38" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="39" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
